--- a/biology/Botanique/Pavillon_Gene-H.-Kruger/Pavillon_Gene-H.-Kruger.xlsx
+++ b/biology/Botanique/Pavillon_Gene-H.-Kruger/Pavillon_Gene-H.-Kruger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le pavillon Gene H. Kruger (GHK) est l'un des bâtiments de l'Université Laval, à Québec.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce pavillon d’enseignement et de recherche en génie du bois a été inauguré en 2005. Nommé en l'honneur du fils du fondateur de la compagnie forestière Kruger, généreuse donatrice, Gene H. Kruger (1902-1988). Il s'agit d'un bâtiment vert, construction écologique construite entièrement en bois et de matériaux non-polluants, utilisant au maximum l'énergie solaire pour son chauffage et la ventilation naturelle[1]. La structure et la finition font l'objet d'une étude pour évaluer l'empreinte environnementale de la construction en bois[2].
-En 2006, le pavillon reçoit une reconnaissance architecturale de la ville[3]. En 2007, l’Ordre des architectes du Québec attribue un Prix d'excellence en architecture au consortium Gauthier Gallienne Moisan et à l’université pour la réalisation du pavillon[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce pavillon d’enseignement et de recherche en génie du bois a été inauguré en 2005. Nommé en l'honneur du fils du fondateur de la compagnie forestière Kruger, généreuse donatrice, Gene H. Kruger (1902-1988). Il s'agit d'un bâtiment vert, construction écologique construite entièrement en bois et de matériaux non-polluants, utilisant au maximum l'énergie solaire pour son chauffage et la ventilation naturelle. La structure et la finition font l'objet d'une étude pour évaluer l'empreinte environnementale de la construction en bois.
+En 2006, le pavillon reçoit une reconnaissance architecturale de la ville. En 2007, l’Ordre des architectes du Québec attribue un Prix d'excellence en architecture au consortium Gauthier Gallienne Moisan et à l’université pour la réalisation du pavillon.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Art public</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Deux œuvres d'art public sont installées dans le hall d'entrée du pavillon :  Intersection de Karole Biron et le Buste commémoratif de Gene H. Kruger de Jan Stohl.
 			Intersection
